--- a/medicine/Bioéthique/Movimento_per_la_vita/Movimento_per_la_vita.xlsx
+++ b/medicine/Bioéthique/Movimento_per_la_vita/Movimento_per_la_vita.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le  Movimento per la Vita (Mouvement pour la vie, MpV) est le principal mouvement pro-vie italien. Ses statuts lui définissent pour mission de promouvoir le respect de la vie humaine de la conception jusqu'à la mort naturelle, de favoriser par un engagement éducatif la formation d'une mentalité d'accueil de la vie, et d'informer dans les domaines touchant à la sexualité, à la vie prénatale, à l'avortement, à l'adoption, à la famille, aux manipulations génétiques, à l'euthanasie et au suicide. 
 Son président actuel est le député européen du PPE et ancien magistrat Carlo Casini.
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le Mouvement pour la Vie fut fondé en 1975 à Florence dans le but de lutter contre l'avortement, à l'époque illégal, et de traduire sur le plan politique et social la doctrine de l'Église catholique telle qu'exposée en 1967 dans l'encyclique Humanae Vitae du Pape Paul VI. En 1981, le MpV promut un référendum proposant d'abroger la loi de 1978 légalisant l'avortement, mais fut désavoué par l'électorat et, à partir de 1985, tourna prioritairement son action vers la création de  Centres d'Aide à la Vie  destinées à aider les femmes enceintes en difficulté par des aides économiques, un soutien psychologique et médical, et en proposant le recours aux méthodes planification familiale naturelle. Aujourd'hui, 300 centres accueillent environ 20 000 femmes par an. 
 En 1995, les Centres d'Aide à la vie du MpV ont été cités dans l'encyclique de Jean-Paul II Evangelium vitæ: 
@@ -544,7 +558,9 @@
           <t>Organisation et activités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mouvement est présent dans toute l'Italie, structuré, outre les Centres d'Aide à la vie, en environ 500 antennes locales.
 Il dispose d'un comité scientifique présidé par la sénatrice du Parti Démocrate Paola Binetti.
@@ -579,7 +595,9 @@
           <t>Actions politiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>En 1977, une proposition de loi d'initiative populaire concernant l'Accueil de la vie humaine.
 En 1981, la proposition de deux référendums visant à revenir sur la loi sur l'avortement de 1978.
